--- a/DS Algo Related/cheat sheet ds algo.xlsx
+++ b/DS Algo Related/cheat sheet ds algo.xlsx
@@ -326,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -359,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,6 +417,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -758,7 +769,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,6 +833,7 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="21"/>
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -880,6 +892,7 @@
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -897,7 +910,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="10" t="s">
